--- a/medicine/Pharmacie/2017_en_santé_et_médecine/2017_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/2017_en_santé_et_médecine/2017_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2017_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2017_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2017 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2017_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2017_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>21 juin : première opération à Clinatec consistant à implanter deux implants cérébraux sur un tétraplégique afin d'actionner un exosquelette[1].
-Le 10 septembre, les autorités françaises ont signalé au Centre européen de prévention et de contrôle des maladies (ECDC) trois cas de fièvre typhoïde liés au rassemblement européen Rainbow qui ont eu lieu à Tramonti di Sopra, région Frioul-Vénétie Julienne, Italie, à partir du 23 juillet jusqu'au 21 août 2017. Le 12 septembre, les autorités allemandes ont signalé un cas lié à ce rassemblement Rainbow[2]. Quatorze cas de shigellose à l'espèce Shigella sonnei seront signalés chez des participants au rassemblement arc-en-ciel dans le sud-est de la Pologne entre le 13 juillet et le 11 août 2018[3].
-5 décembre : première opération chirurgicale en réalité augmentée au monde, réalisée dans l'Hôpital Avicenne, à Bobigny (Seine-Saint-Denis, France)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21 juin : première opération à Clinatec consistant à implanter deux implants cérébraux sur un tétraplégique afin d'actionner un exosquelette.
+Le 10 septembre, les autorités françaises ont signalé au Centre européen de prévention et de contrôle des maladies (ECDC) trois cas de fièvre typhoïde liés au rassemblement européen Rainbow qui ont eu lieu à Tramonti di Sopra, région Frioul-Vénétie Julienne, Italie, à partir du 23 juillet jusqu'au 21 août 2017. Le 12 septembre, les autorités allemandes ont signalé un cas lié à ce rassemblement Rainbow. Quatorze cas de shigellose à l'espèce Shigella sonnei seront signalés chez des participants au rassemblement arc-en-ciel dans le sud-est de la Pologne entre le 13 juillet et le 11 août 2018.
+5 décembre : première opération chirurgicale en réalité augmentée au monde, réalisée dans l'Hôpital Avicenne, à Bobigny (Seine-Saint-Denis, France)</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2017_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2017_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le prix Nobel de médecine est attribué à Jeffrey C. Hall, Michael Rosbash et Michael W. Young, « pour leurs découvertes des mécanismes moléculaires qui règlent le rythme circadien »[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le prix Nobel de médecine est attribué à Jeffrey C. Hall, Michael Rosbash et Michael W. Young, « pour leurs découvertes des mécanismes moléculaires qui règlent le rythme circadien ».</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2017_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2017_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>11 mars : Jean-Claude Étienne (né en 1941), professeur agrégé de médecine et homme politique français.
 28 mars : Jean-Pierre Cave (né en 1952), chirurgien ORL et homme politique français.
